--- a/SHArC/SHArea/VanillaC4_sharea_chju.xlsx
+++ b/SHArC/SHArea/VanillaC4_sharea_chju.xlsx
@@ -397,7 +397,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -449,7 +449,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Discharge (m³/s)</a:t>
+                  <a:t>Discharge (cfs)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -504,7 +504,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -677,7 +677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" baseline="0" i="0" lang="en-US" strike="noStrike" sz="1000"/>
-                  <a:t>Discharge (m³/s)</a:t>
+                  <a:t>Discharge (cfs)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -724,7 +724,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -775,7 +775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Calculated Area (m²)</a:t>
+                  <a:t>Calculated Area (acres)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -830,7 +830,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1175,7 +1175,7 @@
   <dimension ref="B2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1190,7 +1190,7 @@
     <col customWidth="1" max="8" min="8" style="6" width="2.28515625"/>
     <col customWidth="1" max="9" min="9" style="6" width="12.42578125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="10"/>
-    <col customWidth="1" max="11" min="11" style="14" width="11.85546875"/>
+    <col customWidth="1" max="11" min="11" style="14" width="11.42578125"/>
     <col customWidth="1" max="16" min="12" style="6" width="9.140625"/>
     <col customWidth="1" max="16384" min="17" style="6" width="9.140625"/>
   </cols>
@@ -1238,14 +1238,14 @@
       </c>
       <c r="K2" s="12" t="inlineStr">
         <is>
-          <t>(m²/season)</t>
+          <t>(ac/season)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>(m³/s)</t>
+          <t>(cfs)</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -1265,35 +1265,33 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>(m² per discharge)</t>
+          <t>(ac per discharge)</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>(m²·%exceed.)</t>
+          <t>(ac·%exceed.)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="14" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>h000021.tif</t>
+          <t>h000100.tif</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>u000021.tif</t>
+          <t>u000100.tif</t>
         </is>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.5540176538801661</v>
-      </c>
-      <c r="F4" s="15" t="n">
-        <v>29423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="n"/>
       <c r="G4" s="15">
         <f>IF(NOT(ISBLANK(F4)),E4/100*F4, "")</f>
         <v/>
@@ -1301,24 +1299,22 @@
     </row>
     <row r="5">
       <c r="B5" s="14" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>h000020.tif</t>
+          <t>h000090.tif</t>
         </is>
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>u000020.tif</t>
+          <t>u000090.tif</t>
         </is>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.6591684053116998</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>28247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="n"/>
       <c r="G5" s="15">
         <f>IF(NOT(ISBLANK(F5)),(E5-E4)/100*F5,"")</f>
         <v/>
@@ -1326,24 +1322,22 @@
     </row>
     <row r="6">
       <c r="B6" s="14" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>h000019.tif</t>
+          <t>h000080.tif</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>u000019.tif</t>
+          <t>u000080.tif</t>
         </is>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.7615237971598421</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <v>27160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="n"/>
       <c r="G6" s="15">
         <f>IF(NOT(ISBLANK(F6)),(E6-E5)/100*F6,"")</f>
         <v/>
@@ -1351,24 +1345,22 @@
     </row>
     <row r="7">
       <c r="B7" s="14" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
-          <t>h000018.tif</t>
+          <t>h000070.tif</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>u000018.tif</t>
+          <t>u000070.tif</t>
         </is>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.9284051589684225</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>25624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="n"/>
       <c r="G7" s="15">
         <f>IF(NOT(ISBLANK(F7)),(E7-E6)/100*F7,"")</f>
         <v/>
@@ -1376,24 +1368,22 @@
     </row>
     <row r="8">
       <c r="B8" s="14" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>h000017.tif</t>
+          <t>h000060.tif</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>u000017.tif</t>
+          <t>u000060.tif</t>
         </is>
       </c>
       <c r="E8" s="15" t="n">
-        <v>1.044443282460473</v>
-      </c>
-      <c r="F8" s="15" t="n">
-        <v>24668</v>
-      </c>
+        <v>0.01957612409203052</v>
+      </c>
+      <c r="F8" s="15" t="n"/>
       <c r="G8" s="15">
         <f>IF(NOT(ISBLANK(F8)),(E8-E7)/100*F8,"")</f>
         <v/>
@@ -1401,24 +1391,22 @@
     </row>
     <row r="9">
       <c r="B9" s="14" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C9" s="14" t="inlineStr">
         <is>
-          <t>h000016.tif</t>
+          <t>h000050.tif</t>
         </is>
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>u000016.tif</t>
+          <t>u000050.tif</t>
         </is>
       </c>
       <c r="E9" s="15" t="n">
-        <v>1.187890704589015</v>
-      </c>
-      <c r="F9" s="15" t="n">
-        <v>23116</v>
-      </c>
+        <v>0.0266175660720928</v>
+      </c>
+      <c r="F9" s="15" t="n"/>
       <c r="G9" s="15">
         <f>IF(NOT(ISBLANK(F9)),(E9-E8)/100*F9,"")</f>
         <v/>
@@ -1426,24 +1414,22 @@
     </row>
     <row r="10">
       <c r="B10" s="14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14" t="inlineStr">
         <is>
-          <t>h000015.tif</t>
+          <t>h000040.tif</t>
         </is>
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>u000015.tif</t>
+          <t>u000040.tif</t>
         </is>
       </c>
       <c r="E10" s="15" t="n">
-        <v>1.42548816420585</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>21505</v>
-      </c>
+        <v>0.04105265046796617</v>
+      </c>
+      <c r="F10" s="15" t="n"/>
       <c r="G10" s="15">
         <f>IF(NOT(ISBLANK(F10)),(E10-E9)/100*F10,"")</f>
         <v/>
@@ -1451,24 +1437,22 @@
     </row>
     <row r="11">
       <c r="B11" s="14" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C11" s="14" t="inlineStr">
         <is>
-          <t>h000014.tif</t>
+          <t>h000030.tif</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>u000014.tif</t>
+          <t>u000030.tif</t>
         </is>
       </c>
       <c r="E11" s="15" t="n">
-        <v>1.76429599534609</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <v>19184</v>
-      </c>
+        <v>0.1215274960467499</v>
+      </c>
+      <c r="F11" s="15" t="n"/>
       <c r="G11" s="15">
         <f>IF(NOT(ISBLANK(F11)),(E11-E10)/100*F11,"")</f>
         <v/>
@@ -1476,24 +1460,22 @@
     </row>
     <row r="12">
       <c r="B12" s="14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" s="14" t="inlineStr">
         <is>
-          <t>h000013.tif</t>
+          <t>h000020.tif</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>u000013.tif</t>
+          <t>u000020.tif</t>
         </is>
       </c>
       <c r="E12" s="15" t="n">
-        <v>1.956778145863389</v>
-      </c>
-      <c r="F12" s="15" t="n">
-        <v>16132</v>
-      </c>
+        <v>0.6591684053116998</v>
+      </c>
+      <c r="F12" s="15" t="n"/>
       <c r="G12" s="15">
         <f>IF(NOT(ISBLANK(F12)),(E12-E11)/100*F12,"")</f>
         <v/>
@@ -1501,24 +1483,22 @@
     </row>
     <row r="13">
       <c r="B13" s="14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
-          <t>h000012.tif</t>
+          <t>h000015.tif</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>u000012.tif</t>
+          <t>u000015.tif</t>
         </is>
       </c>
       <c r="E13" s="15" t="n">
-        <v>2.10642574208126</v>
-      </c>
-      <c r="F13" s="15" t="n">
-        <v>14511</v>
-      </c>
+        <v>1.42548816420585</v>
+      </c>
+      <c r="F13" s="15" t="n"/>
       <c r="G13" s="15">
         <f>IF(NOT(ISBLANK(F13)),(E13-E12)/100*F13,"")</f>
         <v/>
@@ -1526,24 +1506,22 @@
     </row>
     <row r="14">
       <c r="B14" s="14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14" t="inlineStr">
         <is>
-          <t>h000011.tif</t>
+          <t>h000012.tif</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>u000011.tif</t>
+          <t>u000012.tif</t>
         </is>
       </c>
       <c r="E14" s="15" t="n">
-        <v>3.841484665203082</v>
-      </c>
-      <c r="F14" s="15" t="n">
-        <v>12974</v>
-      </c>
+        <v>2.10642574208126</v>
+      </c>
+      <c r="F14" s="15" t="n"/>
       <c r="G14" s="15">
         <f>IF(NOT(ISBLANK(F14)),(E14-E13)/100*F14,"")</f>
         <v/>
@@ -1566,9 +1544,7 @@
       <c r="E15" s="15" t="n">
         <v>5.69736768558637</v>
       </c>
-      <c r="F15" s="15" t="n">
-        <v>11470</v>
-      </c>
+      <c r="F15" s="15" t="n"/>
       <c r="G15" s="15">
         <f>IF(NOT(ISBLANK(F15)),(E15-E14)/100*F15,"")</f>
         <v/>
@@ -1591,9 +1567,7 @@
       <c r="E16" s="15" t="n">
         <v>7.97672946789348</v>
       </c>
-      <c r="F16" s="15" t="n">
-        <v>10707</v>
-      </c>
+      <c r="F16" s="15" t="n"/>
       <c r="G16" s="15">
         <f>IF(NOT(ISBLANK(F16)),(E16-E15)/100*F16,"")</f>
         <v/>
@@ -1616,9 +1590,7 @@
       <c r="E17" s="15" t="n">
         <v>9.201650898744514</v>
       </c>
-      <c r="F17" s="15" t="n">
-        <v>9929</v>
-      </c>
+      <c r="F17" s="15" t="n"/>
       <c r="G17" s="15">
         <f>IF(NOT(ISBLANK(F17)),(E17-E16)/100*F17,"")</f>
         <v/>
@@ -1641,9 +1613,7 @@
       <c r="E18" s="15" t="n">
         <v>11.07241048821303</v>
       </c>
-      <c r="F18" s="15" t="n">
-        <v>9156</v>
-      </c>
+      <c r="F18" s="15" t="n"/>
       <c r="G18" s="15">
         <f>IF(NOT(ISBLANK(F18)),(E18-E17)/100*F18,"")</f>
         <v/>
@@ -1666,9 +1636,7 @@
       <c r="E19" s="15" t="n">
         <v>14.96535384515522</v>
       </c>
-      <c r="F19" s="15" t="n">
-        <v>7650</v>
-      </c>
+      <c r="F19" s="15" t="n"/>
       <c r="G19" s="15">
         <f>IF(NOT(ISBLANK(F19)),(E19-E18)/100*F19,"")</f>
         <v/>
@@ -1691,9 +1659,7 @@
       <c r="E20" s="15" t="n">
         <v>19.40373994558309</v>
       </c>
-      <c r="F20" s="15" t="n">
-        <v>6119</v>
-      </c>
+      <c r="F20" s="15" t="n"/>
       <c r="G20" s="15">
         <f>IF(NOT(ISBLANK(F20)),(E20-E19)/100*F20,"")</f>
         <v/>
@@ -1716,9 +1682,7 @@
       <c r="E21" s="15" t="n">
         <v>31.32055671854123</v>
       </c>
-      <c r="F21" s="15" t="n">
-        <v>3136</v>
-      </c>
+      <c r="F21" s="15" t="n"/>
       <c r="G21" s="15">
         <f>IF(NOT(ISBLANK(F21)),(E21-E20)/100*F21,"")</f>
         <v/>
@@ -1741,9 +1705,7 @@
       <c r="E22" s="15" t="n">
         <v>46.23760608863574</v>
       </c>
-      <c r="F22" s="15" t="n">
-        <v>52</v>
-      </c>
+      <c r="F22" s="15" t="n"/>
       <c r="G22" s="15">
         <f>IF(NOT(ISBLANK(F22)),(E22-E21)/100*F22,"")</f>
         <v/>
@@ -1766,9 +1728,7 @@
       <c r="E23" s="15" t="n">
         <v>93.13946632480297</v>
       </c>
-      <c r="F23" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="15" t="n"/>
       <c r="G23" s="15">
         <f>IF(NOT(ISBLANK(F23)),(E23-E22)/100*F23,"")</f>
         <v/>
@@ -1791,9 +1751,7 @@
       <c r="E24" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="F24" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="15" t="n"/>
       <c r="G24" s="15">
         <f>IF(NOT(ISBLANK(F24)),(E24-E23)/100*F24,"")</f>
         <v/>
